--- a/Resources/Research.xlsx
+++ b/Resources/Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luis/Documents/21_ISYE6740_CDA/Project/cda_recomm_project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B6763F-21D6-CD4A-AF4F-D3277143C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE6492-A258-BC4C-A0B2-166C4BED61F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="4600" windowWidth="27240" windowHeight="16440" xr2:uid="{876ECE87-68B4-034F-9BC0-F2B3EAD34B0F}"/>
+    <workbookView xWindow="10620" yWindow="4780" windowWidth="27240" windowHeight="16440" xr2:uid="{876ECE87-68B4-034F-9BC0-F2B3EAD34B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0204003#pone.0204003.ref023</t>
   </si>
@@ -46,16 +46,66 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Set of tutorial on recommender systems</t>
+  </si>
+  <si>
+    <t>https://medium.com/fnplus/evaluating-recommender-systems-with-python-code-ae0c370c90be</t>
+  </si>
+  <si>
+    <t>Train Test split</t>
+  </si>
+  <si>
+    <t>https://datascience.stackexchange.com/questions/66820/train-test-split-for-a-recommender-system</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>https://medium.com/swlh/how-to-build-simple-recommender-systems-in-python-647e5bcd78bd</t>
+  </si>
+  <si>
+    <t>paper procedure</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1742-6596/1549/3/032022/pdf</t>
+  </si>
+  <si>
+    <t>12 article walktrough</t>
+  </si>
+  <si>
+    <t>https://medium.com/fnplus/user-based-and-item-based-collaborative-filtering-b73d9b2badba</t>
+  </si>
+  <si>
+    <t>Community based paper</t>
+  </si>
+  <si>
+    <t>https://www.hindawi.com/journals/misy/2019/3560968/</t>
+  </si>
+  <si>
+    <t>improve recommender systen</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/4-ways-to-supercharge-your-recommendation-system-aeac34678ce9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +128,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5370FAB5-54FD-DC42-8A71-DB56CEC66184}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -424,7 +477,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{2E252529-F707-614C-BDB8-CA9982000F3F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>